--- a/b07.xlsx
+++ b/b07.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasarayv\Downloads\iot\reports\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D71762-B0A5-4555-A273-A5B4F284CB7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
     <sheet name="power" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>RN</t>
   </si>
@@ -27,14 +33,37 @@
   </si>
   <si>
     <t>DS</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>KeySize=32</t>
+  </si>
+  <si>
+    <t>KeySize=64</t>
+  </si>
+  <si>
+    <t>KeySize=128</t>
+  </si>
+  <si>
+    <t>KeySize=256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,14 +91,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -116,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,90 +436,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.001801783500366885</v>
-      </c>
-      <c r="D2">
-        <v>-0.001310924993945989</v>
-      </c>
-      <c r="E2">
-        <v>-0.002079737807311637</v>
-      </c>
-      <c r="F2">
-        <v>-0.0008380382735706342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.801783500366885E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1.3109249939459891E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-2.0797378073116372E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-8.3803827357063418E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-0.002337052084147213</v>
-      </c>
-      <c r="F3">
-        <v>0.002044224348748086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-2.3370520841472131E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0442243487480858E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-0.001561529157489953</v>
-      </c>
-      <c r="F4">
-        <v>0.0002455186700479088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1.561529157489953E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.4551867004790878E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
         <v>0.1219128094239318</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="2">
         <v>0.1221757588154619</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="2">
         <v>0.1202948506836746</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2">
         <v>0.1238400086667077</v>
       </c>
     </row>
@@ -450,91 +536,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>-0.004104685169279034</v>
-      </c>
-      <c r="D2">
-        <v>-0.004319619654510985</v>
-      </c>
-      <c r="E2">
-        <v>-0.009471607315500426</v>
-      </c>
-      <c r="F2">
-        <v>0.01945197341252364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-4.1046851692790338E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-4.3196196545109847E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-9.4716073155004261E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.9451973412523641E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-0.0001135047281561689</v>
-      </c>
-      <c r="E3">
-        <v>0.005253417418065224</v>
-      </c>
-      <c r="F3">
-        <v>-0.004135275096016145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.135047281561689E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.2534174180652237E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-4.1352750960161446E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-9.659976864332897e-06</v>
-      </c>
-      <c r="E4">
-        <v>-0.006666189034477313</v>
-      </c>
-      <c r="F4">
-        <v>0.0002092994987276704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-9.6599768643328973E-6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-6.6661890344773128E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.0929949872767041E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.0966834884430451</v>
-      </c>
-      <c r="D5">
-        <v>0.09732829189874095</v>
-      </c>
-      <c r="E5">
-        <v>0.09223909408736962</v>
-      </c>
-      <c r="F5">
-        <v>0.09901959284807503</v>
+      <c r="B5" s="2">
+        <v>9.6683488443045099E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.7328291898740954E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.2239094087369619E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.901959284807503E-2</v>
       </c>
     </row>
   </sheetData>
